--- a/Numeralia.xlsx
+++ b/Numeralia.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rectroria/Documents/GitHub/EntregaRectoria/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2CDDACB0-A440-A641-BEFC-8B8DC3E4BDC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22EA0EE4-8931-E74F-94F9-3BB7AAB1459B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2780" yWindow="1500" windowWidth="28040" windowHeight="17440" xr2:uid="{3A5F54E7-E8AD-2942-B7F9-17626260BC85}"/>
+    <workbookView xWindow="3500" yWindow="500" windowWidth="30080" windowHeight="18780" activeTab="1" xr2:uid="{3A5F54E7-E8AD-2942-B7F9-17626260BC85}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="102">
   <si>
     <t>Temas Administrativos</t>
   </si>
@@ -293,13 +294,64 @@
   </si>
   <si>
     <t>Capacitación en Modelos de Atención y Prevención de Adicciones</t>
+  </si>
+  <si>
+    <t>Nomina</t>
+  </si>
+  <si>
+    <t>Rectoria</t>
+  </si>
+  <si>
+    <t>Sria Gral</t>
+  </si>
+  <si>
+    <t>CSA</t>
+  </si>
+  <si>
+    <t>CSE</t>
+  </si>
+  <si>
+    <t>CA</t>
+  </si>
+  <si>
+    <t>Difusion</t>
+  </si>
+  <si>
+    <t>Capítulo 1000</t>
+  </si>
+  <si>
+    <t>Capítulo 2000</t>
+  </si>
+  <si>
+    <t>Capítulo 3000</t>
+  </si>
+  <si>
+    <t>Capítulo 5000</t>
+  </si>
+  <si>
+    <t>Capítulo 4000</t>
+  </si>
+  <si>
+    <t>Capítulo 6000</t>
+  </si>
+  <si>
+    <t>Capítulo 7000</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Año</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -320,6 +372,40 @@
       <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -338,16 +424,28 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="17" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Moneda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -662,15 +760,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCBB33B3-CCD1-014B-A11F-91F438E90484}">
   <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="47" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="68.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="3"/>
+    <col min="1" max="2" width="47" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="68.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -1036,4 +1133,710 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C39E6AB0-E300-4E4A-AC94-D54CB1D673AF}">
+  <dimension ref="A1:S24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="3"/>
+    <col min="2" max="2" width="20.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="22.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="26.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="24" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="20.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="22.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="10.83203125" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B1" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="24" x14ac:dyDescent="0.3">
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="3">
+        <v>2024</v>
+      </c>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5">
+        <v>1453616202.1199999</v>
+      </c>
+      <c r="M2" s="6">
+        <v>800000</v>
+      </c>
+      <c r="N2" s="5">
+        <v>1316700</v>
+      </c>
+      <c r="O2" s="5">
+        <v>126484680.22</v>
+      </c>
+      <c r="P2" s="5">
+        <v>4015650</v>
+      </c>
+      <c r="Q2" s="5">
+        <v>8890980</v>
+      </c>
+      <c r="R2" s="5">
+        <v>7498169</v>
+      </c>
+      <c r="S2" s="6"/>
+    </row>
+    <row r="3" spans="1:19" ht="24" x14ac:dyDescent="0.3">
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="3">
+        <v>2023</v>
+      </c>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5">
+        <v>1372431605</v>
+      </c>
+      <c r="M3" s="5">
+        <v>319865</v>
+      </c>
+      <c r="N3" s="6"/>
+      <c r="O3" s="5">
+        <v>101421348.23</v>
+      </c>
+      <c r="P3" s="5">
+        <v>200000</v>
+      </c>
+      <c r="Q3" s="5">
+        <v>5510000</v>
+      </c>
+      <c r="R3" s="6"/>
+      <c r="S3" s="5">
+        <v>51185542.399999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="24" x14ac:dyDescent="0.3">
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="3">
+        <v>2022</v>
+      </c>
+      <c r="K4" s="5"/>
+      <c r="L4" s="6">
+        <v>1336589518.3800001</v>
+      </c>
+      <c r="M4" s="6">
+        <v>280500</v>
+      </c>
+      <c r="N4" s="6">
+        <v>700000</v>
+      </c>
+      <c r="O4" s="6">
+        <f>95074931.32+2177879.88</f>
+        <v>97252811.199999988</v>
+      </c>
+      <c r="P4" s="6">
+        <f>1200800+181000</f>
+        <v>1381800</v>
+      </c>
+      <c r="Q4" s="6">
+        <v>250000</v>
+      </c>
+      <c r="R4" s="6">
+        <v>735340</v>
+      </c>
+      <c r="S4" s="6">
+        <v>36000000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="24" x14ac:dyDescent="0.3">
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="3">
+        <v>2021</v>
+      </c>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5">
+        <v>1281357339.8299999</v>
+      </c>
+      <c r="M5" s="5">
+        <v>250000</v>
+      </c>
+      <c r="N5" s="5">
+        <v>1860000</v>
+      </c>
+      <c r="O5" s="5">
+        <v>81631483</v>
+      </c>
+      <c r="P5" s="5">
+        <v>3932066</v>
+      </c>
+      <c r="Q5" s="5">
+        <v>5817500</v>
+      </c>
+      <c r="R5" s="5">
+        <v>5379000</v>
+      </c>
+      <c r="S5" s="5">
+        <v>24515015.170000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="24" x14ac:dyDescent="0.3">
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="3">
+        <v>2020</v>
+      </c>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5">
+        <v>1270027278.03</v>
+      </c>
+      <c r="M6" s="6"/>
+      <c r="N6" s="5">
+        <v>416000</v>
+      </c>
+      <c r="O6" s="5">
+        <v>89623960</v>
+      </c>
+      <c r="P6" s="5">
+        <v>2217132.3199999998</v>
+      </c>
+      <c r="Q6" s="5">
+        <v>7282842</v>
+      </c>
+      <c r="R6" s="5">
+        <v>5501272</v>
+      </c>
+      <c r="S6" s="6"/>
+    </row>
+    <row r="7" spans="1:19" ht="24" x14ac:dyDescent="0.3">
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="3">
+        <v>2019</v>
+      </c>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+    </row>
+    <row r="8" spans="1:19" ht="24" x14ac:dyDescent="0.3">
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="3">
+        <v>2018</v>
+      </c>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+    </row>
+    <row r="9" spans="1:19" ht="24" x14ac:dyDescent="0.3">
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="3">
+        <v>2017</v>
+      </c>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+    </row>
+    <row r="10" spans="1:19" ht="24" x14ac:dyDescent="0.3">
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="3">
+        <v>2016</v>
+      </c>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
+    </row>
+    <row r="11" spans="1:19" ht="24" x14ac:dyDescent="0.3">
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="3">
+        <v>2015</v>
+      </c>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+    </row>
+    <row r="12" spans="1:19" ht="24" x14ac:dyDescent="0.3">
+      <c r="B12" s="5">
+        <v>2000000</v>
+      </c>
+      <c r="C12" s="5">
+        <v>6294000</v>
+      </c>
+      <c r="D12" s="5">
+        <f>5382457.47+992310.4</f>
+        <v>6374767.8700000001</v>
+      </c>
+      <c r="E12" s="5">
+        <v>26241294.800000001</v>
+      </c>
+      <c r="F12" s="5">
+        <f>95521280.99+1949695.4</f>
+        <v>97470976.390000001</v>
+      </c>
+      <c r="G12" s="5">
+        <f>31351263.83+57994.2</f>
+        <v>31409258.029999997</v>
+      </c>
+      <c r="H12" s="5">
+        <v>905441782.45000005</v>
+      </c>
+      <c r="I12" s="5"/>
+      <c r="J12" s="3">
+        <v>2014</v>
+      </c>
+      <c r="K12" s="5">
+        <v>1075232079.54</v>
+      </c>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="5"/>
+    </row>
+    <row r="13" spans="1:19" ht="24" x14ac:dyDescent="0.3">
+      <c r="A13" s="7">
+        <v>41426</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5">
+        <v>12510072</v>
+      </c>
+      <c r="D13" s="5">
+        <v>14817979</v>
+      </c>
+      <c r="E13" s="5">
+        <v>7710027</v>
+      </c>
+      <c r="F13" s="5">
+        <v>122910651</v>
+      </c>
+      <c r="G13" s="5">
+        <v>32207947</v>
+      </c>
+      <c r="H13" s="5">
+        <v>867477433</v>
+      </c>
+      <c r="I13" s="5">
+        <f>SUM(B13:H13)</f>
+        <v>1057634109</v>
+      </c>
+      <c r="J13" s="3">
+        <v>2013</v>
+      </c>
+      <c r="K13" s="5">
+        <v>1096245725</v>
+      </c>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="5"/>
+    </row>
+    <row r="14" spans="1:19" ht="24" x14ac:dyDescent="0.3">
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="3">
+        <v>2012</v>
+      </c>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="5"/>
+    </row>
+    <row r="15" spans="1:19" ht="24" x14ac:dyDescent="0.3">
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="3">
+        <v>2011</v>
+      </c>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
+    </row>
+    <row r="16" spans="1:19" ht="24" x14ac:dyDescent="0.3">
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="3">
+        <v>2010</v>
+      </c>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="5"/>
+    </row>
+    <row r="17" spans="2:19" ht="24" x14ac:dyDescent="0.3">
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="3">
+        <v>2009</v>
+      </c>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="5"/>
+      <c r="S17" s="5"/>
+    </row>
+    <row r="18" spans="2:19" ht="24" x14ac:dyDescent="0.3">
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="3">
+        <v>2008</v>
+      </c>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
+      <c r="S18" s="5"/>
+    </row>
+    <row r="19" spans="2:19" ht="24" x14ac:dyDescent="0.3">
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="3">
+        <v>2007</v>
+      </c>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="5"/>
+      <c r="S19" s="5"/>
+    </row>
+    <row r="20" spans="2:19" ht="24" x14ac:dyDescent="0.3">
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="3">
+        <v>2006</v>
+      </c>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="5"/>
+      <c r="S20" s="5"/>
+    </row>
+    <row r="21" spans="2:19" ht="24" x14ac:dyDescent="0.3">
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="3">
+        <v>2005</v>
+      </c>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="5"/>
+      <c r="S21" s="5"/>
+    </row>
+    <row r="22" spans="2:19" ht="24" x14ac:dyDescent="0.3">
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="3">
+        <v>2004</v>
+      </c>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="5"/>
+      <c r="S22" s="5"/>
+    </row>
+    <row r="23" spans="2:19" ht="24" x14ac:dyDescent="0.3">
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="3">
+        <v>2003</v>
+      </c>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="5"/>
+      <c r="R23" s="5"/>
+      <c r="S23" s="5"/>
+    </row>
+    <row r="24" spans="2:19" ht="24" x14ac:dyDescent="0.3">
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="3">
+        <v>2002</v>
+      </c>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="5"/>
+      <c r="R24" s="5"/>
+      <c r="S24" s="5"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Numeralia.xlsx
+++ b/Numeralia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rectroria/Documents/GitHub/EntregaRectoria/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22EA0EE4-8931-E74F-94F9-3BB7AAB1459B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39B293F7-11B9-9D49-BF73-CF6B9D2C8EAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3500" yWindow="500" windowWidth="30080" windowHeight="18780" activeTab="1" xr2:uid="{3A5F54E7-E8AD-2942-B7F9-17626260BC85}"/>
+    <workbookView xWindow="2360" yWindow="500" windowWidth="31220" windowHeight="18780" activeTab="1" xr2:uid="{3A5F54E7-E8AD-2942-B7F9-17626260BC85}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="103">
   <si>
     <t>Temas Administrativos</t>
   </si>
@@ -342,6 +342,9 @@
   </si>
   <si>
     <t>Año</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$1´717,350,000.00 </t>
   </si>
 </sst>
 </file>
@@ -1137,32 +1140,32 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C39E6AB0-E300-4E4A-AC94-D54CB1D673AF}">
-  <dimension ref="A1:S24"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="3"/>
-    <col min="2" max="2" width="20.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="22.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="22.5" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="26.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="24" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="18" width="20.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="22.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="10.83203125" style="3"/>
+    <col min="8" max="9" width="26.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.1640625" style="3" customWidth="1"/>
+    <col min="11" max="11" width="6.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="26.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="24" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="20.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="22.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
         <v>99</v>
       </c>
@@ -1187,38 +1190,38 @@
       <c r="I1" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="T1" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="24" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" ht="24" x14ac:dyDescent="0.3">
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
@@ -1226,69 +1229,82 @@
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="3">
+      <c r="J2" s="5"/>
+      <c r="K2" s="3">
         <v>2024</v>
       </c>
-      <c r="K2" s="5"/>
       <c r="L2" s="5">
+        <f>SUM(M2:T2)</f>
+        <v>1602622381.3399999</v>
+      </c>
+      <c r="M2" s="5">
         <v>1453616202.1199999</v>
       </c>
-      <c r="M2" s="6">
+      <c r="N2" s="6">
         <v>800000</v>
       </c>
-      <c r="N2" s="5">
+      <c r="O2" s="5">
         <v>1316700</v>
       </c>
-      <c r="O2" s="5">
+      <c r="P2" s="5">
         <v>126484680.22</v>
       </c>
-      <c r="P2" s="5">
+      <c r="Q2" s="5">
         <v>4015650</v>
       </c>
-      <c r="Q2" s="5">
+      <c r="R2" s="5">
         <v>8890980</v>
       </c>
-      <c r="R2" s="5">
+      <c r="S2" s="5">
         <v>7498169</v>
       </c>
-      <c r="S2" s="6"/>
-    </row>
-    <row r="3" spans="1:19" ht="24" x14ac:dyDescent="0.3">
+      <c r="T2" s="6"/>
+    </row>
+    <row r="3" spans="1:20" ht="24" x14ac:dyDescent="0.3">
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="3">
+      <c r="H3" s="5">
+        <v>1453616202.1199999</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="K3" s="3">
         <v>2023</v>
       </c>
-      <c r="K3" s="5"/>
       <c r="L3" s="5">
+        <f>SUM(M3:T3)</f>
+        <v>1531068360.6300001</v>
+      </c>
+      <c r="M3" s="5">
         <v>1372431605</v>
       </c>
-      <c r="M3" s="5">
+      <c r="N3" s="5">
         <v>319865</v>
       </c>
-      <c r="N3" s="6"/>
-      <c r="O3" s="5">
+      <c r="O3" s="6"/>
+      <c r="P3" s="5">
         <v>101421348.23</v>
       </c>
-      <c r="P3" s="5">
+      <c r="Q3" s="5">
         <v>200000</v>
       </c>
-      <c r="Q3" s="5">
+      <c r="R3" s="5">
         <v>5510000</v>
       </c>
-      <c r="R3" s="6"/>
-      <c r="S3" s="5">
+      <c r="S3" s="6"/>
+      <c r="T3" s="5">
         <v>51185542.399999999</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="24" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" ht="24" x14ac:dyDescent="0.3">
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
@@ -1297,38 +1313,42 @@
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
-      <c r="J4" s="3">
+      <c r="J4" s="5"/>
+      <c r="K4" s="3">
         <v>2022</v>
       </c>
-      <c r="K4" s="5"/>
-      <c r="L4" s="6">
+      <c r="L4" s="5">
+        <f>SUM(M4:T4)</f>
+        <v>1473189969.5800002</v>
+      </c>
+      <c r="M4" s="6">
         <v>1336589518.3800001</v>
       </c>
-      <c r="M4" s="6">
+      <c r="N4" s="6">
         <v>280500</v>
       </c>
-      <c r="N4" s="6">
+      <c r="O4" s="6">
         <v>700000</v>
       </c>
-      <c r="O4" s="6">
+      <c r="P4" s="6">
         <f>95074931.32+2177879.88</f>
         <v>97252811.199999988</v>
       </c>
-      <c r="P4" s="6">
+      <c r="Q4" s="6">
         <f>1200800+181000</f>
         <v>1381800</v>
       </c>
-      <c r="Q4" s="6">
+      <c r="R4" s="6">
         <v>250000</v>
       </c>
-      <c r="R4" s="6">
+      <c r="S4" s="6">
         <v>735340</v>
       </c>
-      <c r="S4" s="6">
+      <c r="T4" s="6">
         <v>36000000</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="24" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" ht="24" x14ac:dyDescent="0.3">
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
@@ -1336,37 +1356,45 @@
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="3">
+      <c r="I5" s="5">
+        <v>1500000000</v>
+      </c>
+      <c r="J5" s="5">
+        <v>1513725532.3699999</v>
+      </c>
+      <c r="K5" s="3">
         <v>2021</v>
       </c>
-      <c r="K5" s="5"/>
       <c r="L5" s="5">
+        <f>SUM(M5:T5)</f>
+        <v>1404742404</v>
+      </c>
+      <c r="M5" s="5">
         <v>1281357339.8299999</v>
       </c>
-      <c r="M5" s="5">
+      <c r="N5" s="5">
         <v>250000</v>
       </c>
-      <c r="N5" s="5">
+      <c r="O5" s="5">
         <v>1860000</v>
       </c>
-      <c r="O5" s="5">
+      <c r="P5" s="5">
         <v>81631483</v>
       </c>
-      <c r="P5" s="5">
+      <c r="Q5" s="5">
         <v>3932066</v>
       </c>
-      <c r="Q5" s="5">
+      <c r="R5" s="5">
         <v>5817500</v>
       </c>
-      <c r="R5" s="5">
+      <c r="S5" s="5">
         <v>5379000</v>
       </c>
-      <c r="S5" s="5">
+      <c r="T5" s="5">
         <v>24515015.170000002</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="24" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" ht="24" x14ac:dyDescent="0.3">
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -1375,32 +1403,40 @@
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
-      <c r="J6" s="3">
+      <c r="J6" s="5">
+        <v>1437739109.54</v>
+      </c>
+      <c r="K6" s="3">
         <v>2020</v>
       </c>
-      <c r="K6" s="5"/>
       <c r="L6" s="5">
+        <v>1437739109.54</v>
+      </c>
+      <c r="M6" s="5">
         <v>1270027278.03</v>
       </c>
-      <c r="M6" s="6"/>
-      <c r="N6" s="5">
+      <c r="N6" s="6"/>
+      <c r="O6" s="5">
         <v>416000</v>
       </c>
-      <c r="O6" s="5">
+      <c r="P6" s="5">
         <v>89623960</v>
       </c>
-      <c r="P6" s="5">
+      <c r="Q6" s="5">
         <v>2217132.3199999998</v>
       </c>
-      <c r="Q6" s="5">
+      <c r="R6" s="5">
         <v>7282842</v>
       </c>
-      <c r="R6" s="5">
+      <c r="S6" s="5">
         <v>5501272</v>
       </c>
-      <c r="S6" s="6"/>
-    </row>
-    <row r="7" spans="1:19" ht="24" x14ac:dyDescent="0.3">
+      <c r="T6" s="6"/>
+    </row>
+    <row r="7" spans="1:20" ht="24" x14ac:dyDescent="0.3">
+      <c r="A7" s="7">
+        <v>43586</v>
+      </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -1409,10 +1445,12 @@
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
-      <c r="J7" s="3">
+      <c r="J7" s="5">
+        <v>1550433116</v>
+      </c>
+      <c r="K7" s="3">
         <v>2019</v>
       </c>
-      <c r="K7" s="5"/>
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
       <c r="N7" s="5"/>
@@ -1421,8 +1459,10 @@
       <c r="Q7" s="5"/>
       <c r="R7" s="5"/>
       <c r="S7" s="5"/>
-    </row>
-    <row r="8" spans="1:19" ht="24" x14ac:dyDescent="0.3">
+      <c r="T7" s="5"/>
+    </row>
+    <row r="8" spans="1:20" ht="24" x14ac:dyDescent="0.3">
+      <c r="A8" s="7"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -1431,10 +1471,10 @@
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
-      <c r="J8" s="3">
+      <c r="J8" s="5"/>
+      <c r="K8" s="3">
         <v>2018</v>
       </c>
-      <c r="K8" s="5"/>
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
       <c r="N8" s="5"/>
@@ -1443,8 +1483,9 @@
       <c r="Q8" s="5"/>
       <c r="R8" s="5"/>
       <c r="S8" s="5"/>
-    </row>
-    <row r="9" spans="1:19" ht="24" x14ac:dyDescent="0.3">
+      <c r="T8" s="5"/>
+    </row>
+    <row r="9" spans="1:20" ht="24" x14ac:dyDescent="0.3">
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -1453,10 +1494,10 @@
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
-      <c r="J9" s="3">
+      <c r="J9" s="5"/>
+      <c r="K9" s="3">
         <v>2017</v>
       </c>
-      <c r="K9" s="5"/>
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
       <c r="N9" s="5"/>
@@ -1465,8 +1506,9 @@
       <c r="Q9" s="5"/>
       <c r="R9" s="5"/>
       <c r="S9" s="5"/>
-    </row>
-    <row r="10" spans="1:19" ht="24" x14ac:dyDescent="0.3">
+      <c r="T9" s="5"/>
+    </row>
+    <row r="10" spans="1:20" ht="24" x14ac:dyDescent="0.3">
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
@@ -1475,10 +1517,10 @@
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
-      <c r="J10" s="3">
+      <c r="J10" s="5"/>
+      <c r="K10" s="3">
         <v>2016</v>
       </c>
-      <c r="K10" s="5"/>
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
       <c r="N10" s="5"/>
@@ -1487,20 +1529,40 @@
       <c r="Q10" s="5"/>
       <c r="R10" s="5"/>
       <c r="S10" s="5"/>
-    </row>
-    <row r="11" spans="1:19" ht="24" x14ac:dyDescent="0.3">
+      <c r="T10" s="5"/>
+    </row>
+    <row r="11" spans="1:20" ht="24" x14ac:dyDescent="0.3">
+      <c r="A11" s="7">
+        <v>42156</v>
+      </c>
       <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="3">
+      <c r="C11" s="5">
+        <v>2200221.6800000002</v>
+      </c>
+      <c r="D11" s="5">
+        <v>3052732.72</v>
+      </c>
+      <c r="E11" s="5">
+        <v>31987789.34</v>
+      </c>
+      <c r="F11" s="5">
+        <v>98370344.590000004</v>
+      </c>
+      <c r="G11" s="5">
+        <v>29935053.579999998</v>
+      </c>
+      <c r="H11" s="5">
+        <v>949898900.04999995</v>
+      </c>
+      <c r="I11" s="5">
+        <v>1115445041.96</v>
+      </c>
+      <c r="J11" s="5">
+        <v>1306069673.9400001</v>
+      </c>
+      <c r="K11" s="3">
         <v>2015</v>
       </c>
-      <c r="K11" s="5"/>
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
       <c r="N11" s="5"/>
@@ -1509,8 +1571,9 @@
       <c r="Q11" s="5"/>
       <c r="R11" s="5"/>
       <c r="S11" s="5"/>
-    </row>
-    <row r="12" spans="1:19" ht="24" x14ac:dyDescent="0.3">
+      <c r="T11" s="5"/>
+    </row>
+    <row r="12" spans="1:20" ht="24" x14ac:dyDescent="0.3">
       <c r="B12" s="5">
         <v>2000000</v>
       </c>
@@ -1536,13 +1599,13 @@
         <v>905441782.45000005</v>
       </c>
       <c r="I12" s="5"/>
-      <c r="J12" s="3">
+      <c r="J12" s="5"/>
+      <c r="K12" s="3">
         <v>2014</v>
       </c>
-      <c r="K12" s="5">
+      <c r="L12" s="5">
         <v>1075232079.54</v>
       </c>
-      <c r="L12" s="5"/>
       <c r="M12" s="5"/>
       <c r="N12" s="5"/>
       <c r="O12" s="5"/>
@@ -1550,12 +1613,15 @@
       <c r="Q12" s="5"/>
       <c r="R12" s="5"/>
       <c r="S12" s="5"/>
-    </row>
-    <row r="13" spans="1:19" ht="24" x14ac:dyDescent="0.3">
+      <c r="T12" s="5"/>
+    </row>
+    <row r="13" spans="1:20" ht="24" x14ac:dyDescent="0.3">
       <c r="A13" s="7">
-        <v>41426</v>
-      </c>
-      <c r="B13" s="5"/>
+        <v>41395</v>
+      </c>
+      <c r="B13" s="5">
+        <v>49455781.920000002</v>
+      </c>
       <c r="C13" s="5">
         <v>12510072</v>
       </c>
@@ -1566,25 +1632,27 @@
         <v>7710027</v>
       </c>
       <c r="F13" s="5">
-        <v>122910651</v>
+        <v>122658883</v>
       </c>
       <c r="G13" s="5">
         <v>32207947</v>
       </c>
       <c r="H13" s="5">
-        <v>867477433</v>
+        <v>856885035</v>
       </c>
       <c r="I13" s="5">
         <f>SUM(B13:H13)</f>
-        <v>1057634109</v>
-      </c>
-      <c r="J13" s="3">
+        <v>1096245724.9200001</v>
+      </c>
+      <c r="J13" s="5">
+        <v>1096245725</v>
+      </c>
+      <c r="K13" s="3">
         <v>2013</v>
       </c>
-      <c r="K13" s="5">
+      <c r="L13" s="5">
         <v>1096245725</v>
       </c>
-      <c r="L13" s="5"/>
       <c r="M13" s="5"/>
       <c r="N13" s="5"/>
       <c r="O13" s="5"/>
@@ -1592,20 +1660,39 @@
       <c r="Q13" s="5"/>
       <c r="R13" s="5"/>
       <c r="S13" s="5"/>
-    </row>
-    <row r="14" spans="1:19" ht="24" x14ac:dyDescent="0.3">
+      <c r="T13" s="5"/>
+    </row>
+    <row r="14" spans="1:20" ht="24" x14ac:dyDescent="0.3">
+      <c r="A14" s="7">
+        <v>41426</v>
+      </c>
       <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="3">
-        <v>2012</v>
-      </c>
-      <c r="K14" s="5"/>
+      <c r="C14" s="5">
+        <v>12510072</v>
+      </c>
+      <c r="D14" s="5">
+        <v>14817979</v>
+      </c>
+      <c r="E14" s="5">
+        <v>7710027</v>
+      </c>
+      <c r="F14" s="5">
+        <v>122910651</v>
+      </c>
+      <c r="G14" s="5">
+        <v>32207947</v>
+      </c>
+      <c r="H14" s="5">
+        <v>867477433</v>
+      </c>
+      <c r="I14" s="5">
+        <f>SUM(B14:H14)</f>
+        <v>1057634109</v>
+      </c>
+      <c r="J14" s="5"/>
+      <c r="K14" s="3">
+        <v>2013</v>
+      </c>
       <c r="L14" s="5"/>
       <c r="M14" s="5"/>
       <c r="N14" s="5"/>
@@ -1614,20 +1701,41 @@
       <c r="Q14" s="5"/>
       <c r="R14" s="5"/>
       <c r="S14" s="5"/>
-    </row>
-    <row r="15" spans="1:19" ht="24" x14ac:dyDescent="0.3">
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="3">
-        <v>2011</v>
-      </c>
-      <c r="K15" s="5"/>
+      <c r="T14" s="5"/>
+    </row>
+    <row r="15" spans="1:20" ht="24" x14ac:dyDescent="0.3">
+      <c r="A15" s="7">
+        <v>41456</v>
+      </c>
+      <c r="B15" s="5">
+        <v>33459612</v>
+      </c>
+      <c r="C15" s="5">
+        <v>12510072</v>
+      </c>
+      <c r="D15" s="5">
+        <v>14951585</v>
+      </c>
+      <c r="E15" s="5">
+        <v>16495458</v>
+      </c>
+      <c r="F15" s="5">
+        <v>122896992</v>
+      </c>
+      <c r="G15" s="5">
+        <v>35615375</v>
+      </c>
+      <c r="H15" s="5">
+        <v>867477436</v>
+      </c>
+      <c r="I15" s="5">
+        <f>SUM(B15:H15)</f>
+        <v>1103406530</v>
+      </c>
+      <c r="J15" s="5"/>
+      <c r="K15" s="3">
+        <v>2013</v>
+      </c>
       <c r="L15" s="5"/>
       <c r="M15" s="5"/>
       <c r="N15" s="5"/>
@@ -1636,8 +1744,9 @@
       <c r="Q15" s="5"/>
       <c r="R15" s="5"/>
       <c r="S15" s="5"/>
-    </row>
-    <row r="16" spans="1:19" ht="24" x14ac:dyDescent="0.3">
+      <c r="T15" s="5"/>
+    </row>
+    <row r="16" spans="1:20" ht="24" x14ac:dyDescent="0.3">
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
@@ -1646,10 +1755,10 @@
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
-      <c r="J16" s="3">
-        <v>2010</v>
-      </c>
-      <c r="K16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="3">
+        <v>2012</v>
+      </c>
       <c r="L16" s="5"/>
       <c r="M16" s="5"/>
       <c r="N16" s="5"/>
@@ -1658,8 +1767,9 @@
       <c r="Q16" s="5"/>
       <c r="R16" s="5"/>
       <c r="S16" s="5"/>
-    </row>
-    <row r="17" spans="2:19" ht="24" x14ac:dyDescent="0.3">
+      <c r="T16" s="5"/>
+    </row>
+    <row r="17" spans="1:20" ht="24" x14ac:dyDescent="0.3">
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
@@ -1668,10 +1778,10 @@
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
-      <c r="J17" s="3">
-        <v>2009</v>
-      </c>
-      <c r="K17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="3">
+        <v>2011</v>
+      </c>
       <c r="L17" s="5"/>
       <c r="M17" s="5"/>
       <c r="N17" s="5"/>
@@ -1680,20 +1790,37 @@
       <c r="Q17" s="5"/>
       <c r="R17" s="5"/>
       <c r="S17" s="5"/>
-    </row>
-    <row r="18" spans="2:19" ht="24" x14ac:dyDescent="0.3">
+      <c r="T17" s="5"/>
+    </row>
+    <row r="18" spans="1:20" ht="24" x14ac:dyDescent="0.3">
+      <c r="A18" s="7">
+        <v>40483</v>
+      </c>
       <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
+      <c r="C18" s="5">
+        <v>500000</v>
+      </c>
+      <c r="D18" s="5">
+        <v>81440</v>
+      </c>
       <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="3">
-        <v>2008</v>
-      </c>
-      <c r="K18" s="5"/>
+      <c r="F18" s="5">
+        <v>4170803.96</v>
+      </c>
+      <c r="G18" s="5">
+        <v>7416500</v>
+      </c>
+      <c r="H18" s="5">
+        <v>73774034.769999996</v>
+      </c>
+      <c r="I18" s="5">
+        <f>SUM(B18:H18)</f>
+        <v>85942778.729999989</v>
+      </c>
+      <c r="J18" s="5"/>
+      <c r="K18" s="3">
+        <v>2010</v>
+      </c>
       <c r="L18" s="5"/>
       <c r="M18" s="5"/>
       <c r="N18" s="5"/>
@@ -1702,8 +1829,9 @@
       <c r="Q18" s="5"/>
       <c r="R18" s="5"/>
       <c r="S18" s="5"/>
-    </row>
-    <row r="19" spans="2:19" ht="24" x14ac:dyDescent="0.3">
+      <c r="T18" s="5"/>
+    </row>
+    <row r="19" spans="1:20" ht="24" x14ac:dyDescent="0.3">
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
@@ -1712,10 +1840,10 @@
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
-      <c r="J19" s="3">
-        <v>2007</v>
-      </c>
-      <c r="K19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="3">
+        <v>2009</v>
+      </c>
       <c r="L19" s="5"/>
       <c r="M19" s="5"/>
       <c r="N19" s="5"/>
@@ -1724,8 +1852,9 @@
       <c r="Q19" s="5"/>
       <c r="R19" s="5"/>
       <c r="S19" s="5"/>
-    </row>
-    <row r="20" spans="2:19" ht="24" x14ac:dyDescent="0.3">
+      <c r="T19" s="5"/>
+    </row>
+    <row r="20" spans="1:20" ht="24" x14ac:dyDescent="0.3">
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
@@ -1734,10 +1863,10 @@
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
-      <c r="J20" s="3">
-        <v>2006</v>
-      </c>
-      <c r="K20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="3">
+        <v>2008</v>
+      </c>
       <c r="L20" s="5"/>
       <c r="M20" s="5"/>
       <c r="N20" s="5"/>
@@ -1746,8 +1875,9 @@
       <c r="Q20" s="5"/>
       <c r="R20" s="5"/>
       <c r="S20" s="5"/>
-    </row>
-    <row r="21" spans="2:19" ht="24" x14ac:dyDescent="0.3">
+      <c r="T20" s="5"/>
+    </row>
+    <row r="21" spans="1:20" ht="24" x14ac:dyDescent="0.3">
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
@@ -1756,10 +1886,10 @@
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
-      <c r="J21" s="3">
-        <v>2005</v>
-      </c>
-      <c r="K21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="3">
+        <v>2007</v>
+      </c>
       <c r="L21" s="5"/>
       <c r="M21" s="5"/>
       <c r="N21" s="5"/>
@@ -1768,8 +1898,9 @@
       <c r="Q21" s="5"/>
       <c r="R21" s="5"/>
       <c r="S21" s="5"/>
-    </row>
-    <row r="22" spans="2:19" ht="24" x14ac:dyDescent="0.3">
+      <c r="T21" s="5"/>
+    </row>
+    <row r="22" spans="1:20" ht="24" x14ac:dyDescent="0.3">
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
@@ -1778,10 +1909,10 @@
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
       <c r="I22" s="5"/>
-      <c r="J22" s="3">
-        <v>2004</v>
-      </c>
-      <c r="K22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="3">
+        <v>2006</v>
+      </c>
       <c r="L22" s="5"/>
       <c r="M22" s="5"/>
       <c r="N22" s="5"/>
@@ -1790,8 +1921,9 @@
       <c r="Q22" s="5"/>
       <c r="R22" s="5"/>
       <c r="S22" s="5"/>
-    </row>
-    <row r="23" spans="2:19" ht="24" x14ac:dyDescent="0.3">
+      <c r="T22" s="5"/>
+    </row>
+    <row r="23" spans="1:20" ht="24" x14ac:dyDescent="0.3">
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
@@ -1800,10 +1932,10 @@
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
-      <c r="J23" s="3">
-        <v>2003</v>
-      </c>
-      <c r="K23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="3">
+        <v>2005</v>
+      </c>
       <c r="L23" s="5"/>
       <c r="M23" s="5"/>
       <c r="N23" s="5"/>
@@ -1812,8 +1944,9 @@
       <c r="Q23" s="5"/>
       <c r="R23" s="5"/>
       <c r="S23" s="5"/>
-    </row>
-    <row r="24" spans="2:19" ht="24" x14ac:dyDescent="0.3">
+      <c r="T23" s="5"/>
+    </row>
+    <row r="24" spans="1:20" ht="24" x14ac:dyDescent="0.3">
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
@@ -1822,10 +1955,10 @@
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
       <c r="I24" s="5"/>
-      <c r="J24" s="3">
-        <v>2002</v>
-      </c>
-      <c r="K24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="3">
+        <v>2004</v>
+      </c>
       <c r="L24" s="5"/>
       <c r="M24" s="5"/>
       <c r="N24" s="5"/>
@@ -1834,6 +1967,26 @@
       <c r="Q24" s="5"/>
       <c r="R24" s="5"/>
       <c r="S24" s="5"/>
+      <c r="T24" s="5"/>
+    </row>
+    <row r="25" spans="1:20" ht="24" x14ac:dyDescent="0.3">
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="3">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="K26" s="3">
+        <v>2002</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>

--- a/Numeralia.xlsx
+++ b/Numeralia.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rectroria/Documents/GitHub/EntregaRectoria/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39B293F7-11B9-9D49-BF73-CF6B9D2C8EAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F518C6B1-A21C-8745-A5E9-FE49DFB68637}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2360" yWindow="500" windowWidth="31220" windowHeight="18780" activeTab="1" xr2:uid="{3A5F54E7-E8AD-2942-B7F9-17626260BC85}"/>
+    <workbookView xWindow="4180" yWindow="500" windowWidth="29420" windowHeight="18780" activeTab="1" xr2:uid="{3A5F54E7-E8AD-2942-B7F9-17626260BC85}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
+    <sheet name="ListaTemas" sheetId="3" r:id="rId1"/>
+    <sheet name="Hoja1" sheetId="1" r:id="rId2"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="104">
   <si>
     <t>Temas Administrativos</t>
   </si>
@@ -345,6 +346,9 @@
   </si>
   <si>
     <t xml:space="preserve">$1´717,350,000.00 </t>
+  </si>
+  <si>
+    <t>LISTA TEMAS</t>
   </si>
 </sst>
 </file>
@@ -760,11 +764,467 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53BD333C-E0E9-3442-95E0-2B17045B09B8}">
+  <dimension ref="A1:C84"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A84"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="47" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="68.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B26" s="2"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B27" s="2"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28" s="2"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29" s="2"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B30" s="2"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" s="2"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B32" s="2"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B33" s="2"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B34" s="2"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B35" s="2"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B36" s="2"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B37" s="2"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A54" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A55" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A56" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A57" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A58" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A59" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A60" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A61" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A62" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A63" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A64" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A65" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A66" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A67" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A68" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A69" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A70" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A71" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A72" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A73" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A74" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A75" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A76" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A77" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A78" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A79" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A80" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A81" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A82" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A83" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A84" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A84">
+    <sortCondition ref="A2:A84"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCBB33B3-CCD1-014B-A11F-91F438E90484}">
   <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1138,11 +1598,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C39E6AB0-E300-4E4A-AC94-D54CB1D673AF}">
   <dimension ref="A1:T26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="J2" sqref="J2"/>
     </sheetView>

--- a/Numeralia.xlsx
+++ b/Numeralia.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rectroria/Documents/GitHub/EntregaRectoria/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F518C6B1-A21C-8745-A5E9-FE49DFB68637}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16472C95-91F3-DF40-B0FD-782365DC5599}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4180" yWindow="500" windowWidth="29420" windowHeight="18780" activeTab="1" xr2:uid="{3A5F54E7-E8AD-2942-B7F9-17626260BC85}"/>
+    <workbookView xWindow="4180" yWindow="500" windowWidth="29420" windowHeight="18780" xr2:uid="{3A5F54E7-E8AD-2942-B7F9-17626260BC85}"/>
   </bookViews>
   <sheets>
     <sheet name="ListaTemas" sheetId="3" r:id="rId1"/>
     <sheet name="Hoja1" sheetId="1" r:id="rId2"/>
-    <sheet name="Hoja2" sheetId="2" r:id="rId3"/>
+    <sheet name="Hoja4" sheetId="5" r:id="rId3"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId4"/>
+    <sheet name="Hoja3" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="130">
   <si>
     <t>Temas Administrativos</t>
   </si>
@@ -349,6 +351,549 @@
   </si>
   <si>
     <t>LISTA TEMAS</t>
+  </si>
+  <si>
+    <r>
+      <t>1)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Acciones de Prevención y atención a las adicciones -CSE</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>3)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Apertura del Nucleo Urbano de Bienestar Emocional (NUBE-SLT) - CSE</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>4)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Apoyo para Foros Académicos y Culturales y visitas y prácticas escolares -CSE</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>5)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Atención a Demandas cuidadoras - CSE</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>6)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Atención Psicológica - CSE</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>10)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Capacitación en Modelos de Atención y Prevención de Adicciones - CSE</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>24)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Diagnóstico sobre conductas de riesgo para materia de adicciones - CSE</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>29)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Encuesta sobre conductas de riesgo de salud mental y adicciones -CSE</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>31)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Equipamiento deportivo y habilitación - CSE</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>32)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Estadística de la población estudiantil - CSE</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>33)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">FODEBES -CSE </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>34)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Formación de las brigadas ángeles para prevención de suicidio -CSE</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>42)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Otorgamiento de Becas y apoyos institucionales - CSE</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>45)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Participación en Ferias Profesiográficas y de promoción del empleo – OCTAVIO CSE</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>57)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Promoción de la UACM en bachilleratos de la CDMX y zona conurbada: SE INLCUYE EN EL NUMERAL DE OCTAVIO Y CSE</t>
+    </r>
+  </si>
+  <si>
+    <t>PROGRAMAS DE TELEVISION CAMENA: STRUCK</t>
+  </si>
+  <si>
+    <t>PROGRAMA DE RADIO HECTOR SALINAS</t>
+  </si>
+  <si>
+    <t>PRUEBAS COVID</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CAMPAÑA VACUNACION Y PRESTAMO REFRIGERADORES: PAQUITO</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Fortalecimiento académico: enfrentar los retos del modelo educativo y consolidar nuestros logros.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Impulso a la presencia pública de la Universidad: consolidarnos como la Universidad de la Ciudad de México.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>3.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>Comunidad y gobierno incluyente: sentar las bases para una convivencia democrática y estable.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>4.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Planear y comunicar para construir institución: información, evaluación y diagnostico para darnos viabilidad a largo plazo. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>5.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Cuentas claras para una institución fuerte: construir una administración eficaz, transparente y comprometida con la rendición de cuentas. </t>
+    </r>
+  </si>
+  <si>
+    <t>SITIO DE EGRESADOS</t>
+  </si>
+  <si>
+    <t>https://uacm.edu.mx/EGRESADOS</t>
   </si>
 </sst>
 </file>
@@ -358,7 +903,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -413,6 +958,56 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="7"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF222222"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFC00000"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FFC00000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <u/>
+      <sz val="16"/>
+      <color rgb="FF222222"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -435,7 +1030,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -450,6 +1045,20 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="17" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -767,8 +1376,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53BD333C-E0E9-3442-95E0-2B17045B09B8}">
   <dimension ref="A1:C84"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A84"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="B79" sqref="B79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1221,16 +1830,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCBB33B3-CCD1-014B-A11F-91F438E90484}">
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="47" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="68.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="61" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="60.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="91.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -1244,350 +1854,368 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:3" ht="20" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="10" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:3" ht="20" x14ac:dyDescent="0.2">
+      <c r="A3" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="10" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:3" ht="20" x14ac:dyDescent="0.2">
+      <c r="A4" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="10" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:3" ht="20" x14ac:dyDescent="0.2">
+      <c r="A5" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="10" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:3" ht="20" x14ac:dyDescent="0.2">
+      <c r="A6" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="10" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:3" ht="20" x14ac:dyDescent="0.2">
+      <c r="A7" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="10" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:3" ht="20" x14ac:dyDescent="0.2">
+      <c r="A8" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="10" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:3" ht="20" x14ac:dyDescent="0.2">
+      <c r="A9" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="10" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:3" ht="20" x14ac:dyDescent="0.2">
+      <c r="A10" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
+    <row r="11" spans="1:3" ht="20" x14ac:dyDescent="0.2">
+      <c r="A11" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
+    <row r="12" spans="1:3" ht="20" x14ac:dyDescent="0.2">
+      <c r="A12" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
+    <row r="13" spans="1:3" ht="20" x14ac:dyDescent="0.2">
+      <c r="A13" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="10" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
+    <row r="14" spans="1:3" ht="20" x14ac:dyDescent="0.2">
+      <c r="A14" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="10" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
+    <row r="15" spans="1:3" ht="20" x14ac:dyDescent="0.2">
+      <c r="A15" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="10" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
+    <row r="16" spans="1:3" ht="20" x14ac:dyDescent="0.2">
+      <c r="A16" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="10" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
+    <row r="17" spans="1:3" ht="20" x14ac:dyDescent="0.2">
+      <c r="A17" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="10" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
+    <row r="18" spans="1:3" ht="20" x14ac:dyDescent="0.2">
+      <c r="A18" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="10" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
+    <row r="19" spans="1:3" ht="20" x14ac:dyDescent="0.2">
+      <c r="A19" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="10" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
+    <row r="20" spans="1:3" ht="20" x14ac:dyDescent="0.2">
+      <c r="A20" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="10" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
+    <row r="21" spans="1:3" ht="20" x14ac:dyDescent="0.2">
+      <c r="A21" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="10" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
+    <row r="22" spans="1:3" ht="20" x14ac:dyDescent="0.2">
+      <c r="A22" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="10" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
+    <row r="23" spans="1:3" ht="20" x14ac:dyDescent="0.2">
+      <c r="A23" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
+    <row r="24" spans="1:3" ht="20" x14ac:dyDescent="0.2">
+      <c r="A24" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="10" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2" t="s">
+    <row r="25" spans="1:3" ht="20" x14ac:dyDescent="0.2">
+      <c r="A25" s="10"/>
+      <c r="B25" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="10" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2" t="s">
+    <row r="26" spans="1:3" ht="20" x14ac:dyDescent="0.2">
+      <c r="A26" s="10"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2" t="s">
+    <row r="27" spans="1:3" ht="20" x14ac:dyDescent="0.2">
+      <c r="A27" s="10"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2" t="s">
+    <row r="28" spans="1:3" ht="20" x14ac:dyDescent="0.2">
+      <c r="A28" s="10"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2" t="s">
+    <row r="29" spans="1:3" ht="20" x14ac:dyDescent="0.2">
+      <c r="A29" s="10"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2" t="s">
+    <row r="30" spans="1:3" ht="20" x14ac:dyDescent="0.2">
+      <c r="A30" s="10"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2" t="s">
+    <row r="31" spans="1:3" ht="20" x14ac:dyDescent="0.2">
+      <c r="A31" s="10"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2" t="s">
+    <row r="32" spans="1:3" ht="20" x14ac:dyDescent="0.2">
+      <c r="B32" s="10"/>
+      <c r="C32" s="10" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2" t="s">
+    <row r="33" spans="1:3" ht="20" x14ac:dyDescent="0.2">
+      <c r="B33" s="10"/>
+      <c r="C33" s="10" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2" t="s">
+    <row r="34" spans="1:3" ht="20" x14ac:dyDescent="0.2">
+      <c r="B34" s="10"/>
+      <c r="C34" s="10" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2" t="s">
+    <row r="35" spans="1:3" ht="20" x14ac:dyDescent="0.2">
+      <c r="B35" s="10"/>
+      <c r="C35" s="10" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2" t="s">
+    <row r="36" spans="1:3" ht="20" x14ac:dyDescent="0.2">
+      <c r="A36" s="10"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="10" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2" t="s">
+    <row r="37" spans="1:3" ht="20" x14ac:dyDescent="0.2">
+      <c r="A37" s="10"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10" t="s">
         <v>56</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C39" s="9" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C40" s="9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C41" s="12" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -1599,6 +2227,435 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21981A51-020E-1E45-98CE-9E771CEABCE9}">
+  <dimension ref="A1:M42"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="10" width="20.33203125" customWidth="1"/>
+    <col min="11" max="11" width="61" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="60.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="91.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" s="11"/>
+    </row>
+    <row r="2" spans="1:13" ht="210" x14ac:dyDescent="0.2">
+      <c r="A2" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="20" x14ac:dyDescent="0.2">
+      <c r="A3" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" s="10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="20" x14ac:dyDescent="0.2">
+      <c r="A4" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="L4" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="M4" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="20" x14ac:dyDescent="0.2">
+      <c r="A5" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="L5" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="M5" s="10" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="20" x14ac:dyDescent="0.2">
+      <c r="A6" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="L6" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="M6" s="10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="20" x14ac:dyDescent="0.2">
+      <c r="A7" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="K7" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="L7" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="M7" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="20" x14ac:dyDescent="0.2">
+      <c r="A8" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="K8" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="L8" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="M8" s="10" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="20" x14ac:dyDescent="0.2">
+      <c r="A9" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="B9" t="s">
+        <v>129</v>
+      </c>
+      <c r="K9" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="L9" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="M9" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="20" x14ac:dyDescent="0.2">
+      <c r="K10" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="L10" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="M10" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="20" x14ac:dyDescent="0.2">
+      <c r="K11" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="L11" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="M11" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="20" x14ac:dyDescent="0.2">
+      <c r="K12" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="L12" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="M12" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="20" x14ac:dyDescent="0.2">
+      <c r="K13" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="L13" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="M13" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="20" x14ac:dyDescent="0.2">
+      <c r="K14" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="L14" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="M14" s="10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="20" x14ac:dyDescent="0.2">
+      <c r="K15" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="L15" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="M15" s="10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="20" x14ac:dyDescent="0.2">
+      <c r="K16" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="L16" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="M16" s="10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="11:13" ht="20" x14ac:dyDescent="0.2">
+      <c r="K17" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="L17" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="M17" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="11:13" ht="20" x14ac:dyDescent="0.2">
+      <c r="K18" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="L18" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="M18" s="10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="19" spans="11:13" ht="20" x14ac:dyDescent="0.2">
+      <c r="K19" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="L19" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="M19" s="10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="11:13" ht="20" x14ac:dyDescent="0.2">
+      <c r="K20" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="L20" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="M20" s="10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="21" spans="11:13" ht="20" x14ac:dyDescent="0.2">
+      <c r="K21" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="L21" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="M21" s="10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="22" spans="11:13" ht="20" x14ac:dyDescent="0.2">
+      <c r="K22" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="L22" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="M22" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="23" spans="11:13" ht="20" x14ac:dyDescent="0.2">
+      <c r="K23" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="L23" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="M23" s="10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="11:13" ht="20" x14ac:dyDescent="0.2">
+      <c r="K24" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="L24" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="M24" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="11:13" ht="20" x14ac:dyDescent="0.2">
+      <c r="K25" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="L25" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="M25" s="10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="26" spans="11:13" ht="20" x14ac:dyDescent="0.2">
+      <c r="K26" s="10"/>
+      <c r="L26" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="M26" s="10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="27" spans="11:13" ht="20" x14ac:dyDescent="0.2">
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="11:13" ht="20" x14ac:dyDescent="0.2">
+      <c r="K28" s="10"/>
+      <c r="L28" s="10"/>
+      <c r="M28" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="11:13" ht="20" x14ac:dyDescent="0.2">
+      <c r="K29" s="10"/>
+      <c r="L29" s="10"/>
+      <c r="M29" s="10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="11:13" ht="20" x14ac:dyDescent="0.2">
+      <c r="K30" s="10"/>
+      <c r="L30" s="10"/>
+      <c r="M30" s="10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="31" spans="11:13" ht="20" x14ac:dyDescent="0.2">
+      <c r="K31" s="10"/>
+      <c r="L31" s="10"/>
+      <c r="M31" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="11:13" ht="20" x14ac:dyDescent="0.2">
+      <c r="K32" s="10"/>
+      <c r="L32" s="10"/>
+      <c r="M32" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="33" spans="11:13" ht="20" x14ac:dyDescent="0.2">
+      <c r="L33" s="10"/>
+      <c r="M33" s="10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="34" spans="11:13" ht="20" x14ac:dyDescent="0.2">
+      <c r="L34" s="10"/>
+      <c r="M34" s="10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="35" spans="11:13" ht="20" x14ac:dyDescent="0.2">
+      <c r="L35" s="10"/>
+      <c r="M35" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="36" spans="11:13" ht="20" x14ac:dyDescent="0.2">
+      <c r="L36" s="10"/>
+      <c r="M36" s="10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="37" spans="11:13" ht="20" x14ac:dyDescent="0.2">
+      <c r="K37" s="10"/>
+      <c r="L37" s="10"/>
+      <c r="M37" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="38" spans="11:13" ht="20" x14ac:dyDescent="0.2">
+      <c r="K38" s="10"/>
+      <c r="L38" s="10"/>
+      <c r="M38" s="10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="39" spans="11:13" ht="21" x14ac:dyDescent="0.25">
+      <c r="K39" s="3"/>
+      <c r="L39" s="3"/>
+      <c r="M39" s="9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="40" spans="11:13" x14ac:dyDescent="0.2">
+      <c r="M40" s="9" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="41" spans="11:13" x14ac:dyDescent="0.2">
+      <c r="M41" s="9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="42" spans="11:13" x14ac:dyDescent="0.2">
+      <c r="M42" s="12" t="s">
+        <v>122</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C39E6AB0-E300-4E4A-AC94-D54CB1D673AF}">
   <dimension ref="A1:T26"/>
   <sheetViews>
@@ -2452,4 +3509,97 @@
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99FA46C3-EBA1-964E-B284-7604314AFD9D}">
+  <dimension ref="A1:A15"/>
+  <sheetViews>
+    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection sqref="A1:A15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="111.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" s="8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" s="8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" s="8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" s="8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" s="8" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" s="8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" s="8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" s="8" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" s="8" t="s">
+        <v>118</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>